--- a/outcomes/sampled_schools.xlsx
+++ b/outcomes/sampled_schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yetty/Projects/osf-history-curriculum-distribution/outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE4C327-8E2B-2544-8F38-6A006F43BE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5CF8E-95F7-5247-B975-FBCEC22A0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10300" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="2231">
   <si>
     <t>izo</t>
   </si>
@@ -6698,6 +6698,42 @@
   </si>
   <si>
     <t>049123718.pdf</t>
+  </si>
+  <si>
+    <t>181099730.pdf</t>
+  </si>
+  <si>
+    <t>odpověď pana ředitele stála za to</t>
+  </si>
+  <si>
+    <t>102317330.pdf</t>
+  </si>
+  <si>
+    <t>102002037.pdf</t>
+  </si>
+  <si>
+    <t>045832188.pdf</t>
+  </si>
+  <si>
+    <t>102177457.pdf</t>
+  </si>
+  <si>
+    <t>102008582.pdf</t>
+  </si>
+  <si>
+    <t>poslali sken</t>
+  </si>
+  <si>
+    <t>102080127.pdf</t>
+  </si>
+  <si>
+    <t>181128292.pdf</t>
+  </si>
+  <si>
+    <t>181107414.pdf</t>
+  </si>
+  <si>
+    <t>102102074.pdf</t>
   </si>
 </sst>
 </file>
@@ -7062,14 +7098,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="188" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="Q150" sqref="Q150"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -9342,7 +9378,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>364</v>
       </c>
@@ -9379,6 +9415,12 @@
       </c>
       <c r="M60" t="b">
         <v>1</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -9983,8 +10025,14 @@
       <c r="N76" t="b">
         <v>0</v>
       </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
       <c r="P76" t="s">
         <v>466</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>2228</v>
       </c>
     </row>
     <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -11556,7 +11604,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>726</v>
       </c>
@@ -12082,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>807</v>
       </c>
@@ -12119,6 +12167,15 @@
       </c>
       <c r="M134" t="b">
         <v>1</v>
+      </c>
+      <c r="O134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P134" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>2219</v>
       </c>
     </row>
     <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -12602,7 +12659,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>883</v>
       </c>
@@ -12733,7 +12790,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>902</v>
       </c>
@@ -12767,6 +12824,15 @@
       </c>
       <c r="M150" t="b">
         <v>1</v>
+      </c>
+      <c r="O150" t="b">
+        <v>1</v>
+      </c>
+      <c r="P150" t="s">
+        <v>2024</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>2224</v>
       </c>
     </row>
     <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -13108,6 +13174,12 @@
       <c r="M159" t="b">
         <v>1</v>
       </c>
+      <c r="O159" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>2229</v>
+      </c>
     </row>
     <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -14071,7 +14143,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1111</v>
       </c>
@@ -14108,6 +14180,15 @@
       </c>
       <c r="M185" t="b">
         <v>1</v>
+      </c>
+      <c r="O185" t="b">
+        <v>1</v>
+      </c>
+      <c r="P185" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14425,7 +14506,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1172</v>
       </c>
@@ -14459,6 +14540,12 @@
       </c>
       <c r="M195" t="b">
         <v>1</v>
+      </c>
+      <c r="O195" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>2221</v>
       </c>
     </row>
     <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15328,7 +15415,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1311</v>
       </c>
@@ -15365,6 +15452,12 @@
       </c>
       <c r="M219" t="b">
         <v>1</v>
+      </c>
+      <c r="O219" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>2223</v>
       </c>
     </row>
     <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15412,7 +15505,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1323</v>
       </c>
@@ -16008,7 +16101,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1418</v>
       </c>
@@ -16045,6 +16138,12 @@
       </c>
       <c r="M237" t="b">
         <v>1</v>
+      </c>
+      <c r="O237" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>2225</v>
       </c>
     </row>
     <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -16791,7 +16890,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1544</v>
       </c>
@@ -17225,6 +17324,12 @@
       </c>
       <c r="M268" t="b">
         <v>1</v>
+      </c>
+      <c r="O268" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>2230</v>
       </c>
     </row>
     <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">

--- a/outcomes/sampled_schools.xlsx
+++ b/outcomes/sampled_schools.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yetty/Projects/osf-history-curriculum-distribution/outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5CF8E-95F7-5247-B975-FBCEC22A0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6E25C-C2D7-7442-A72D-CDAAD6C760E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$R$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$S$334</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="2232">
   <si>
     <t>izo</t>
   </si>
@@ -6734,6 +6734,9 @@
   </si>
   <si>
     <t>102102074.pdf</t>
+  </si>
+  <si>
+    <t>refused</t>
   </si>
 </sst>
 </file>
@@ -7096,27 +7099,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R334"/>
+  <dimension ref="A1:S334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="F335" sqref="F335"/>
+    <sheetView tabSelected="1" topLeftCell="H292" zoomScale="115" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="48.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7163,16 +7169,19 @@
         <v>2139</v>
       </c>
       <c r="P1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7203,11 +7212,11 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7235,11 +7244,11 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7268,11 +7277,11 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -7303,11 +7312,11 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7345,14 +7354,14 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>2132</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7383,11 +7392,11 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -7425,11 +7434,11 @@
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -7464,14 +7473,14 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -7502,11 +7511,11 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -7537,11 +7546,11 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -7582,14 +7591,14 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>2096</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>2097</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -7614,11 +7623,14 @@
       <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -7688,11 +7700,11 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -7720,11 +7732,11 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -7762,11 +7774,11 @@
       <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -7807,11 +7819,11 @@
       <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -7852,14 +7864,14 @@
       <c r="O19" t="b">
         <v>1</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>2134</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -7887,11 +7899,11 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -7922,11 +7934,11 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -7964,11 +7976,11 @@
       <c r="O22" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -7999,11 +8011,11 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -8028,11 +8040,14 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -8060,11 +8075,11 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -8089,11 +8104,14 @@
       <c r="I26" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -8124,11 +8142,11 @@
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -8153,11 +8171,14 @@
       <c r="I28" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -8195,11 +8216,11 @@
       <c r="O29" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -8237,14 +8258,14 @@
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>2084</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -8285,14 +8306,14 @@
       <c r="O31" t="b">
         <v>1</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>2141</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>193</v>
       </c>
@@ -8323,11 +8344,11 @@
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -8365,14 +8386,14 @@
       <c r="O33" t="b">
         <v>1</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>205</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -8403,11 +8424,11 @@
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -8448,14 +8469,14 @@
       <c r="O35" t="b">
         <v>1</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>2116</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -8483,11 +8504,14 @@
       <c r="J36" t="s">
         <v>223</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>102264791</v>
       </c>
@@ -8518,11 +8542,11 @@
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>2007</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -8550,11 +8574,14 @@
       <c r="J38" t="s">
         <v>235</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -8585,11 +8612,11 @@
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -8620,11 +8647,11 @@
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -8662,14 +8689,14 @@
       <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>256</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -8697,11 +8724,11 @@
       <c r="K42" t="b">
         <v>1</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>262</v>
       </c>
@@ -8732,11 +8759,11 @@
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>269</v>
       </c>
@@ -8764,11 +8791,14 @@
       <c r="J44" t="s">
         <v>274</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>276</v>
       </c>
@@ -8799,11 +8829,11 @@
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -8841,11 +8871,11 @@
       <c r="O46" t="b">
         <v>1</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>287</v>
       </c>
@@ -8873,11 +8903,11 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -8908,11 +8938,11 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -8950,14 +8980,14 @@
       <c r="O49" t="b">
         <v>1</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>2136</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -9001,14 +9031,14 @@
       <c r="O50" t="b">
         <v>1</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>2104</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>311</v>
       </c>
@@ -9046,11 +9076,11 @@
       <c r="N51" t="b">
         <v>0</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -9091,14 +9121,14 @@
       <c r="O52" t="b">
         <v>1</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>2092</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>323</v>
       </c>
@@ -9137,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>329</v>
       </c>
@@ -9172,14 +9202,14 @@
       <c r="N54" t="b">
         <v>1</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>2024</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>2067</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>334</v>
       </c>
@@ -9210,11 +9240,11 @@
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>341</v>
       </c>
@@ -9253,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>346</v>
       </c>
@@ -9291,14 +9321,14 @@
       <c r="N57" t="b">
         <v>1</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>2095</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>2114</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>351</v>
       </c>
@@ -9329,11 +9359,11 @@
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -9374,11 +9404,11 @@
       <c r="O59" t="b">
         <v>1</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>364</v>
       </c>
@@ -9419,11 +9449,11 @@
       <c r="O60" t="b">
         <v>1</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -9464,11 +9494,11 @@
       <c r="N61" t="b">
         <v>0</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>376</v>
       </c>
@@ -9493,11 +9523,14 @@
       <c r="I62" t="s">
         <v>88</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>382</v>
       </c>
@@ -9538,14 +9571,14 @@
       <c r="N63" t="b">
         <v>1</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>2110</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>388</v>
       </c>
@@ -9576,11 +9609,11 @@
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>395</v>
       </c>
@@ -9611,11 +9644,11 @@
       <c r="K65" t="b">
         <v>1</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>402</v>
       </c>
@@ -9646,11 +9679,11 @@
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>408</v>
       </c>
@@ -9678,11 +9711,14 @@
       <c r="J67" t="s">
         <v>413</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -9720,11 +9756,11 @@
       <c r="O68" t="b">
         <v>1</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>418</v>
       </c>
@@ -9755,11 +9791,11 @@
       <c r="K69" t="b">
         <v>1</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>425</v>
       </c>
@@ -9787,11 +9823,14 @@
       <c r="J70" t="s">
         <v>430</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>431</v>
       </c>
@@ -9819,11 +9858,14 @@
       <c r="J71" t="s">
         <v>436</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>438</v>
       </c>
@@ -9861,11 +9903,11 @@
       <c r="O72" t="b">
         <v>1</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>443</v>
       </c>
@@ -9903,14 +9945,14 @@
       <c r="N73" t="b">
         <v>1</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>63</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>448</v>
       </c>
@@ -9941,11 +9983,11 @@
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>455</v>
       </c>
@@ -9986,11 +10028,11 @@
       <c r="O75" t="b">
         <v>1</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>461</v>
       </c>
@@ -10028,14 +10070,14 @@
       <c r="O76" t="b">
         <v>1</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>466</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>467</v>
       </c>
@@ -10066,11 +10108,11 @@
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>473</v>
       </c>
@@ -10111,11 +10153,11 @@
       <c r="O78" t="b">
         <v>1</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>479</v>
       </c>
@@ -10153,14 +10195,14 @@
       <c r="N79" t="b">
         <v>1</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>63</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>485</v>
       </c>
@@ -10191,11 +10233,11 @@
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>491</v>
       </c>
@@ -10236,14 +10278,14 @@
       <c r="N81" t="b">
         <v>1</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>2101</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>497</v>
       </c>
@@ -10268,11 +10310,14 @@
       <c r="I82" t="s">
         <v>88</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>503</v>
       </c>
@@ -10300,11 +10345,11 @@
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>509</v>
       </c>
@@ -10332,11 +10377,11 @@
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>515</v>
       </c>
@@ -10374,14 +10419,14 @@
       <c r="N85" t="b">
         <v>1</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>2024</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>521</v>
       </c>
@@ -10409,11 +10454,14 @@
       <c r="J86" t="s">
         <v>526</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>528</v>
       </c>
@@ -10454,14 +10502,14 @@
       <c r="O87" t="b">
         <v>1</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>2024</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>534</v>
       </c>
@@ -10492,11 +10540,11 @@
       <c r="K88" t="b">
         <v>1</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>540</v>
       </c>
@@ -10524,11 +10572,11 @@
       <c r="K89" t="b">
         <v>1</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>545</v>
       </c>
@@ -10569,11 +10617,11 @@
       <c r="O90" t="b">
         <v>1</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>551</v>
       </c>
@@ -10611,11 +10659,11 @@
       <c r="O91" t="b">
         <v>1</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>556</v>
       </c>
@@ -10656,11 +10704,11 @@
       <c r="O92" t="b">
         <v>1</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>562</v>
       </c>
@@ -10701,14 +10749,14 @@
       <c r="O93" t="b">
         <v>1</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>2030</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>567</v>
       </c>
@@ -10743,14 +10791,14 @@
       <c r="N94" t="b">
         <v>1</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>2090</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>572</v>
       </c>
@@ -10778,11 +10826,14 @@
       <c r="J95" t="s">
         <v>577</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -10810,11 +10861,14 @@
       <c r="J96" t="s">
         <v>584</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>586</v>
       </c>
@@ -10845,11 +10899,11 @@
       <c r="K97" t="b">
         <v>1</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>593</v>
       </c>
@@ -10887,11 +10941,11 @@
       <c r="O98" t="b">
         <v>1</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>598</v>
       </c>
@@ -10922,11 +10976,11 @@
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>605</v>
       </c>
@@ -10951,11 +11005,14 @@
       <c r="I100" t="s">
         <v>88</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="R100" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>611</v>
       </c>
@@ -10986,11 +11043,11 @@
       <c r="K101" t="b">
         <v>1</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>616</v>
       </c>
@@ -11018,11 +11075,11 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>622</v>
       </c>
@@ -11047,11 +11104,14 @@
       <c r="I103" t="s">
         <v>88</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="R103" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>627</v>
       </c>
@@ -11082,11 +11142,11 @@
       <c r="K104" t="b">
         <v>1</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>634</v>
       </c>
@@ -11114,11 +11174,14 @@
       <c r="J105" t="s">
         <v>639</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="R105" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>641</v>
       </c>
@@ -11146,11 +11209,11 @@
       <c r="K106" t="b">
         <v>1</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>647</v>
       </c>
@@ -11191,11 +11254,11 @@
       <c r="O107" t="b">
         <v>1</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>653</v>
       </c>
@@ -11223,11 +11286,11 @@
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>658</v>
       </c>
@@ -11255,11 +11318,14 @@
       <c r="J109" t="s">
         <v>663</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="R109" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>665</v>
       </c>
@@ -11290,11 +11356,11 @@
       <c r="K110" t="b">
         <v>1</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>672</v>
       </c>
@@ -11322,11 +11388,11 @@
       <c r="K111" t="b">
         <v>1</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>677</v>
       </c>
@@ -11354,11 +11420,11 @@
       <c r="K112" t="b">
         <v>1</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>682</v>
       </c>
@@ -11386,11 +11452,14 @@
       <c r="J113" t="s">
         <v>687</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="R113" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>689</v>
       </c>
@@ -11418,11 +11487,14 @@
       <c r="J114" t="s">
         <v>694</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="R114" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>696</v>
       </c>
@@ -11450,11 +11522,14 @@
       <c r="J115" t="s">
         <v>700</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="R115" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>702</v>
       </c>
@@ -11485,11 +11560,11 @@
       <c r="K116" t="b">
         <v>1</v>
       </c>
-      <c r="Q116" t="s">
+      <c r="R116" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>708</v>
       </c>
@@ -11530,14 +11605,14 @@
       <c r="N117" t="b">
         <v>1</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>2128</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>2127</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>714</v>
       </c>
@@ -11565,11 +11640,11 @@
       <c r="K118" t="b">
         <v>1</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="R118" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>719</v>
       </c>
@@ -11600,11 +11675,11 @@
       <c r="K119" t="b">
         <v>1</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>726</v>
       </c>
@@ -11638,14 +11713,14 @@
       <c r="O120" t="b">
         <v>1</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>2164</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="R120" t="s">
         <v>2215</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>732</v>
       </c>
@@ -11673,11 +11748,11 @@
       <c r="K121" t="b">
         <v>1</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>738</v>
       </c>
@@ -11715,11 +11790,14 @@
       <c r="O122" t="b">
         <v>0</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>743</v>
       </c>
@@ -11747,11 +11825,14 @@
       <c r="J123" t="s">
         <v>748</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>750</v>
       </c>
@@ -11779,11 +11860,11 @@
       <c r="K124" t="b">
         <v>1</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>756</v>
       </c>
@@ -11824,14 +11905,14 @@
       <c r="N125" t="b">
         <v>1</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>2024</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="R125" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>762</v>
       </c>
@@ -11866,14 +11947,14 @@
       <c r="N126" t="b">
         <v>1</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>63</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="R126" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>767</v>
       </c>
@@ -11904,11 +11985,11 @@
       <c r="K127" t="b">
         <v>1</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="R127" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>774</v>
       </c>
@@ -11946,14 +12027,14 @@
       <c r="N128" t="b">
         <v>1</v>
       </c>
-      <c r="P128" t="s">
+      <c r="Q128" t="s">
         <v>2118</v>
       </c>
-      <c r="Q128" t="s">
+      <c r="R128" t="s">
         <v>2123</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>779</v>
       </c>
@@ -11981,11 +12062,11 @@
       <c r="K129" t="b">
         <v>1</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="R129" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>785</v>
       </c>
@@ -12016,11 +12097,11 @@
       <c r="K130" t="b">
         <v>1</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>791</v>
       </c>
@@ -12058,11 +12139,11 @@
       <c r="O131" t="b">
         <v>1</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>796</v>
       </c>
@@ -12090,11 +12171,14 @@
       <c r="J132" t="s">
         <v>800</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="R132" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>802</v>
       </c>
@@ -12130,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>807</v>
       </c>
@@ -12171,14 +12255,14 @@
       <c r="O134" t="b">
         <v>1</v>
       </c>
-      <c r="P134" t="s">
+      <c r="Q134" t="s">
         <v>2220</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>813</v>
       </c>
@@ -12216,11 +12300,11 @@
       <c r="O135" t="b">
         <v>1</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="R135" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>818</v>
       </c>
@@ -12251,11 +12335,11 @@
       <c r="K136" t="b">
         <v>1</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>824</v>
       </c>
@@ -12293,11 +12377,14 @@
       <c r="M137" t="b">
         <v>1</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="O137" t="b">
+        <v>1</v>
+      </c>
+      <c r="R137" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>830</v>
       </c>
@@ -12335,14 +12422,14 @@
       <c r="N138" t="b">
         <v>1</v>
       </c>
-      <c r="P138" t="s">
+      <c r="Q138" t="s">
         <v>2025</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>2069</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>836</v>
       </c>
@@ -12380,11 +12467,11 @@
       <c r="O139" t="b">
         <v>1</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="R139" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -12415,11 +12502,11 @@
       <c r="K140" t="b">
         <v>1</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="R140" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>848</v>
       </c>
@@ -12460,14 +12547,14 @@
       <c r="O141" t="b">
         <v>1</v>
       </c>
-      <c r="P141" t="s">
+      <c r="Q141" t="s">
         <v>2166</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="R141" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>853</v>
       </c>
@@ -12495,11 +12582,11 @@
       <c r="K142" t="b">
         <v>1</v>
       </c>
-      <c r="Q142" t="s">
+      <c r="R142" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>859</v>
       </c>
@@ -12527,11 +12614,11 @@
       <c r="K143" t="b">
         <v>1</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="R143" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>865</v>
       </c>
@@ -12562,11 +12649,11 @@
       <c r="K144" t="b">
         <v>1</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>871</v>
       </c>
@@ -12607,11 +12694,11 @@
       <c r="O145" t="b">
         <v>1</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>877</v>
       </c>
@@ -12652,14 +12739,14 @@
       <c r="N146" t="b">
         <v>1</v>
       </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>2105</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="R146" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>883</v>
       </c>
@@ -12703,14 +12790,14 @@
       <c r="O147" t="b">
         <v>1</v>
       </c>
-      <c r="P147" t="s">
+      <c r="Q147" t="s">
         <v>2135</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="R147" t="s">
         <v>2218</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>889</v>
       </c>
@@ -12741,11 +12828,11 @@
       <c r="K148" t="b">
         <v>1</v>
       </c>
-      <c r="Q148" t="s">
+      <c r="R148" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>896</v>
       </c>
@@ -12786,11 +12873,11 @@
       <c r="O149" t="b">
         <v>1</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="R149" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>902</v>
       </c>
@@ -12828,14 +12915,14 @@
       <c r="O150" t="b">
         <v>1</v>
       </c>
-      <c r="P150" t="s">
+      <c r="Q150" t="s">
         <v>2024</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="R150" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>907</v>
       </c>
@@ -12876,11 +12963,11 @@
       <c r="O151" t="b">
         <v>1</v>
       </c>
-      <c r="Q151" t="s">
+      <c r="R151" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>912</v>
       </c>
@@ -12911,11 +12998,11 @@
       <c r="K152" t="b">
         <v>1</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="R152" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>919</v>
       </c>
@@ -12943,11 +13030,14 @@
       <c r="J153" t="s">
         <v>924</v>
       </c>
-      <c r="Q153" t="s">
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="R153" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>926</v>
       </c>
@@ -12988,11 +13078,11 @@
       <c r="O154" t="b">
         <v>1</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="R154" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>932</v>
       </c>
@@ -13023,11 +13113,11 @@
       <c r="K155" t="b">
         <v>1</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="R155" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>939</v>
       </c>
@@ -13058,11 +13148,11 @@
       <c r="K156" t="b">
         <v>1</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="R156" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>945</v>
       </c>
@@ -13090,11 +13180,14 @@
       <c r="J157" t="s">
         <v>950</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="R157" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>952</v>
       </c>
@@ -13135,11 +13228,11 @@
       <c r="O158" t="b">
         <v>1</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="R158" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>957</v>
       </c>
@@ -13177,11 +13270,11 @@
       <c r="O159" t="b">
         <v>1</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="R159" t="s">
         <v>2229</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>962</v>
       </c>
@@ -13212,11 +13305,11 @@
       <c r="K160" t="b">
         <v>1</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="R160" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>969</v>
       </c>
@@ -13247,11 +13340,11 @@
       <c r="K161" t="b">
         <v>1</v>
       </c>
-      <c r="Q161" t="s">
+      <c r="R161" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>976</v>
       </c>
@@ -13282,11 +13375,11 @@
       <c r="K162" t="b">
         <v>1</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="R162" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>983</v>
       </c>
@@ -13317,11 +13410,11 @@
       <c r="K163" t="b">
         <v>1</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>990</v>
       </c>
@@ -13349,11 +13442,14 @@
       <c r="J164" t="s">
         <v>995</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="R164" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>997</v>
       </c>
@@ -13384,11 +13480,11 @@
       <c r="K165" t="b">
         <v>1</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1003</v>
       </c>
@@ -13423,14 +13519,14 @@
       <c r="N166" t="b">
         <v>1</v>
       </c>
-      <c r="P166" t="s">
+      <c r="Q166" t="s">
         <v>1008</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1009</v>
       </c>
@@ -13474,14 +13570,14 @@
       <c r="O167" t="b">
         <v>1</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>2125</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1015</v>
       </c>
@@ -13512,11 +13608,11 @@
       <c r="K168" t="b">
         <v>1</v>
       </c>
-      <c r="Q168" t="s">
+      <c r="R168" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1021</v>
       </c>
@@ -13557,14 +13653,14 @@
       <c r="O169" t="b">
         <v>1</v>
       </c>
-      <c r="P169" t="s">
+      <c r="Q169" t="s">
         <v>2140</v>
       </c>
-      <c r="Q169" t="s">
+      <c r="R169" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1027</v>
       </c>
@@ -13592,11 +13688,14 @@
       <c r="J170" t="s">
         <v>1032</v>
       </c>
-      <c r="Q170" t="s">
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="R170" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1034</v>
       </c>
@@ -13634,14 +13733,14 @@
       <c r="O171" t="b">
         <v>1</v>
       </c>
-      <c r="P171" t="s">
+      <c r="Q171" t="s">
         <v>2160</v>
       </c>
-      <c r="Q171" t="s">
+      <c r="R171" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1038</v>
       </c>
@@ -13669,11 +13768,11 @@
       <c r="K172" t="b">
         <v>1</v>
       </c>
-      <c r="Q172" t="s">
+      <c r="R172" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1044</v>
       </c>
@@ -13704,11 +13803,11 @@
       <c r="K173" t="b">
         <v>1</v>
       </c>
-      <c r="Q173" t="s">
+      <c r="R173" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1049</v>
       </c>
@@ -13743,14 +13842,14 @@
       <c r="N174" t="b">
         <v>1</v>
       </c>
-      <c r="P174" t="s">
+      <c r="Q174" t="s">
         <v>2027</v>
       </c>
-      <c r="Q174" t="s">
+      <c r="R174" t="s">
         <v>2070</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1053</v>
       </c>
@@ -13789,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1058</v>
       </c>
@@ -13830,11 +13929,11 @@
       <c r="O176" t="b">
         <v>1</v>
       </c>
-      <c r="Q176" t="s">
+      <c r="R176" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1064</v>
       </c>
@@ -13862,11 +13961,11 @@
       <c r="K177" t="b">
         <v>1</v>
       </c>
-      <c r="Q177" t="s">
+      <c r="R177" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1070</v>
       </c>
@@ -13907,14 +14006,14 @@
       <c r="O178" t="b">
         <v>1</v>
       </c>
-      <c r="P178" t="s">
+      <c r="Q178" t="s">
         <v>2024</v>
       </c>
-      <c r="Q178" t="s">
+      <c r="R178" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1076</v>
       </c>
@@ -13942,11 +14041,14 @@
       <c r="J179" t="s">
         <v>1081</v>
       </c>
-      <c r="Q179" t="s">
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="R179" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1083</v>
       </c>
@@ -13975,11 +14077,11 @@
       <c r="O180" t="b">
         <v>1</v>
       </c>
-      <c r="Q180" t="s">
+      <c r="R180" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1087</v>
       </c>
@@ -14010,11 +14112,11 @@
       <c r="K181" t="b">
         <v>1</v>
       </c>
-      <c r="Q181" t="s">
+      <c r="R181" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1094</v>
       </c>
@@ -14050,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1099</v>
       </c>
@@ -14091,11 +14193,11 @@
       <c r="O183" t="b">
         <v>1</v>
       </c>
-      <c r="Q183" t="s">
+      <c r="R183" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1105</v>
       </c>
@@ -14136,14 +14238,14 @@
       <c r="N184" t="b">
         <v>1</v>
       </c>
-      <c r="P184" t="s">
+      <c r="Q184" t="s">
         <v>2084</v>
       </c>
-      <c r="Q184" t="s">
+      <c r="R184" t="s">
         <v>2098</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1111</v>
       </c>
@@ -14184,14 +14286,14 @@
       <c r="O185" t="b">
         <v>1</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>2226</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="R185" t="s">
         <v>2227</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1117</v>
       </c>
@@ -14222,11 +14324,11 @@
       <c r="K186" t="b">
         <v>1</v>
       </c>
-      <c r="Q186" t="s">
+      <c r="R186" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1123</v>
       </c>
@@ -14257,11 +14359,11 @@
       <c r="K187" t="b">
         <v>1</v>
       </c>
-      <c r="Q187" t="s">
+      <c r="R187" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1129</v>
       </c>
@@ -14295,14 +14397,14 @@
       <c r="O188" t="b">
         <v>1</v>
       </c>
-      <c r="P188" t="s">
+      <c r="Q188" t="s">
         <v>2036</v>
       </c>
-      <c r="Q188" t="s">
+      <c r="R188" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1135</v>
       </c>
@@ -14330,11 +14432,14 @@
       <c r="J189" t="s">
         <v>1140</v>
       </c>
-      <c r="Q189" t="s">
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="R189" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1142</v>
       </c>
@@ -14365,11 +14470,11 @@
       <c r="K190" t="b">
         <v>1</v>
       </c>
-      <c r="Q190" t="s">
+      <c r="R190" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1148</v>
       </c>
@@ -14400,11 +14505,11 @@
       <c r="K191" t="b">
         <v>1</v>
       </c>
-      <c r="Q191" t="s">
+      <c r="R191" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1153</v>
       </c>
@@ -14435,11 +14540,11 @@
       <c r="K192" t="b">
         <v>1</v>
       </c>
-      <c r="Q192" t="s">
+      <c r="R192" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1160</v>
       </c>
@@ -14470,11 +14575,11 @@
       <c r="K193" t="b">
         <v>1</v>
       </c>
-      <c r="Q193" t="s">
+      <c r="R193" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1167</v>
       </c>
@@ -14502,11 +14607,11 @@
       <c r="K194" t="b">
         <v>1</v>
       </c>
-      <c r="Q194" t="s">
+      <c r="R194" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1172</v>
       </c>
@@ -14544,11 +14649,11 @@
       <c r="O195" t="b">
         <v>1</v>
       </c>
-      <c r="Q195" t="s">
+      <c r="R195" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1177</v>
       </c>
@@ -14579,11 +14684,11 @@
       <c r="K196" t="b">
         <v>1</v>
       </c>
-      <c r="Q196" t="s">
+      <c r="R196" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1183</v>
       </c>
@@ -14621,14 +14726,14 @@
       <c r="N197" t="b">
         <v>1</v>
       </c>
-      <c r="P197" t="s">
+      <c r="Q197" t="s">
         <v>2024</v>
       </c>
-      <c r="Q197" t="s">
+      <c r="R197" t="s">
         <v>2071</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1189</v>
       </c>
@@ -14666,14 +14771,14 @@
       <c r="N198" t="b">
         <v>1</v>
       </c>
-      <c r="P198" t="s">
+      <c r="Q198" t="s">
         <v>2024</v>
       </c>
-      <c r="Q198" t="s">
+      <c r="R198" t="s">
         <v>2100</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1194</v>
       </c>
@@ -14704,11 +14809,11 @@
       <c r="K199" t="b">
         <v>1</v>
       </c>
-      <c r="Q199" t="s">
+      <c r="R199" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1199</v>
       </c>
@@ -14749,11 +14854,11 @@
       <c r="O200" t="b">
         <v>1</v>
       </c>
-      <c r="Q200" t="s">
+      <c r="R200" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1204</v>
       </c>
@@ -14791,14 +14896,14 @@
       <c r="N201" t="b">
         <v>1</v>
       </c>
-      <c r="P201" t="s">
+      <c r="Q201" t="s">
         <v>2089</v>
       </c>
-      <c r="Q201" t="s">
+      <c r="R201" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1210</v>
       </c>
@@ -14829,11 +14934,11 @@
       <c r="K202" t="b">
         <v>1</v>
       </c>
-      <c r="Q202" t="s">
+      <c r="R202" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1216</v>
       </c>
@@ -14874,11 +14979,11 @@
       <c r="O203" t="b">
         <v>1</v>
       </c>
-      <c r="Q203" t="s">
+      <c r="R203" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1222</v>
       </c>
@@ -14909,11 +15014,11 @@
       <c r="K204" t="b">
         <v>1</v>
       </c>
-      <c r="Q204" t="s">
+      <c r="R204" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1229</v>
       </c>
@@ -14941,11 +15046,11 @@
       <c r="K205" t="b">
         <v>1</v>
       </c>
-      <c r="Q205" t="s">
+      <c r="R205" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1235</v>
       </c>
@@ -14973,11 +15078,14 @@
       <c r="J206" t="s">
         <v>1240</v>
       </c>
-      <c r="Q206" t="s">
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="R206" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1242</v>
       </c>
@@ -15008,11 +15116,11 @@
       <c r="K207" t="b">
         <v>1</v>
       </c>
-      <c r="Q207" t="s">
+      <c r="R207" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1248</v>
       </c>
@@ -15040,11 +15148,14 @@
       <c r="J208" t="s">
         <v>1253</v>
       </c>
-      <c r="Q208" t="s">
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="R208" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1255</v>
       </c>
@@ -15075,11 +15186,11 @@
       <c r="K209" t="b">
         <v>1</v>
       </c>
-      <c r="Q209" t="s">
+      <c r="R209" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1260</v>
       </c>
@@ -15110,11 +15221,11 @@
       <c r="K210" t="b">
         <v>1</v>
       </c>
-      <c r="Q210" t="s">
+      <c r="R210" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1266</v>
       </c>
@@ -15145,11 +15256,11 @@
       <c r="K211" t="b">
         <v>1</v>
       </c>
-      <c r="Q211" t="s">
+      <c r="R211" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1272</v>
       </c>
@@ -15177,11 +15288,11 @@
       <c r="K212" t="b">
         <v>1</v>
       </c>
-      <c r="Q212" t="s">
+      <c r="R212" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1277</v>
       </c>
@@ -15219,11 +15330,11 @@
       <c r="O213" t="b">
         <v>1</v>
       </c>
-      <c r="Q213" t="s">
+      <c r="R213" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1282</v>
       </c>
@@ -15251,11 +15362,14 @@
       <c r="J214" t="s">
         <v>1286</v>
       </c>
-      <c r="Q214" t="s">
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="R214" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1288</v>
       </c>
@@ -15283,11 +15397,14 @@
       <c r="J215" t="s">
         <v>1293</v>
       </c>
-      <c r="Q215" t="s">
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="R215" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1295</v>
       </c>
@@ -15315,11 +15432,11 @@
       <c r="K216" t="b">
         <v>1</v>
       </c>
-      <c r="Q216" t="s">
+      <c r="R216" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1300</v>
       </c>
@@ -15360,11 +15477,11 @@
       <c r="O217" t="b">
         <v>1</v>
       </c>
-      <c r="Q217" t="s">
+      <c r="R217" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1305</v>
       </c>
@@ -15408,14 +15525,14 @@
       <c r="O218" t="b">
         <v>1</v>
       </c>
-      <c r="P218" t="s">
+      <c r="Q218" t="s">
         <v>2030</v>
       </c>
-      <c r="Q218" t="s">
+      <c r="R218" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1311</v>
       </c>
@@ -15456,11 +15573,11 @@
       <c r="O219" t="b">
         <v>1</v>
       </c>
-      <c r="Q219" t="s">
+      <c r="R219" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1317</v>
       </c>
@@ -15498,14 +15615,14 @@
       <c r="N220" t="b">
         <v>1</v>
       </c>
-      <c r="P220" t="s">
+      <c r="Q220" t="s">
         <v>2084</v>
       </c>
-      <c r="Q220" t="s">
+      <c r="R220" t="s">
         <v>2085</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1323</v>
       </c>
@@ -15546,11 +15663,11 @@
       <c r="O221" t="b">
         <v>1</v>
       </c>
-      <c r="Q221" t="s">
+      <c r="R221" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1329</v>
       </c>
@@ -15581,11 +15698,11 @@
       <c r="K222" t="b">
         <v>1</v>
       </c>
-      <c r="Q222" t="s">
+      <c r="R222" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1335</v>
       </c>
@@ -15610,11 +15727,14 @@
       <c r="I223" t="s">
         <v>88</v>
       </c>
-      <c r="Q223" t="s">
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="R223" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1340</v>
       </c>
@@ -15645,11 +15765,11 @@
       <c r="K224" t="b">
         <v>1</v>
       </c>
-      <c r="Q224" t="s">
+      <c r="R224" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1346</v>
       </c>
@@ -15680,11 +15800,11 @@
       <c r="K225" t="b">
         <v>1</v>
       </c>
-      <c r="Q225" t="s">
+      <c r="R225" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1352</v>
       </c>
@@ -15725,11 +15845,11 @@
       <c r="O226" t="b">
         <v>1</v>
       </c>
-      <c r="Q226" t="s">
+      <c r="R226" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1358</v>
       </c>
@@ -15770,11 +15890,11 @@
       <c r="O227" t="b">
         <v>1</v>
       </c>
-      <c r="Q227" t="s">
+      <c r="R227" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1364</v>
       </c>
@@ -15802,11 +15922,14 @@
       <c r="J228" t="s">
         <v>1369</v>
       </c>
-      <c r="Q228" t="s">
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="R228" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1371</v>
       </c>
@@ -15845,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1376</v>
       </c>
@@ -15883,11 +16006,14 @@
       <c r="O230" t="b">
         <v>0</v>
       </c>
-      <c r="P230" t="s">
+      <c r="P230" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q230" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1381</v>
       </c>
@@ -15918,11 +16044,11 @@
       <c r="K231" t="b">
         <v>1</v>
       </c>
-      <c r="Q231" t="s">
+      <c r="R231" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1387</v>
       </c>
@@ -15953,11 +16079,11 @@
       <c r="K232" t="b">
         <v>1</v>
       </c>
-      <c r="Q232" t="s">
+      <c r="R232" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1393</v>
       </c>
@@ -15995,11 +16121,11 @@
       <c r="O233" t="b">
         <v>1</v>
       </c>
-      <c r="Q233" t="s">
+      <c r="R233" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1398</v>
       </c>
@@ -16030,11 +16156,11 @@
       <c r="K234" t="b">
         <v>1</v>
       </c>
-      <c r="Q234" t="s">
+      <c r="R234" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1404</v>
       </c>
@@ -16062,11 +16188,14 @@
       <c r="J235" t="s">
         <v>1409</v>
       </c>
-      <c r="Q235" t="s">
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="R235" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1411</v>
       </c>
@@ -16097,11 +16226,11 @@
       <c r="K236" t="b">
         <v>1</v>
       </c>
-      <c r="Q236" t="s">
+      <c r="R236" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1418</v>
       </c>
@@ -16142,11 +16271,11 @@
       <c r="O237" t="b">
         <v>1</v>
       </c>
-      <c r="Q237" t="s">
+      <c r="R237" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1423</v>
       </c>
@@ -16177,11 +16306,11 @@
       <c r="K238" t="b">
         <v>1</v>
       </c>
-      <c r="Q238" t="s">
+      <c r="R238" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1429</v>
       </c>
@@ -16212,11 +16341,11 @@
       <c r="K239" t="b">
         <v>1</v>
       </c>
-      <c r="Q239" t="s">
+      <c r="R239" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1435</v>
       </c>
@@ -16247,11 +16376,11 @@
       <c r="K240" t="b">
         <v>1</v>
       </c>
-      <c r="Q240" t="s">
+      <c r="R240" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1442</v>
       </c>
@@ -16282,11 +16411,11 @@
       <c r="K241" t="b">
         <v>1</v>
       </c>
-      <c r="Q241" t="s">
+      <c r="R241" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1449</v>
       </c>
@@ -16327,11 +16456,11 @@
       <c r="O242" t="b">
         <v>1</v>
       </c>
-      <c r="Q242" t="s">
+      <c r="R242" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1455</v>
       </c>
@@ -16362,11 +16491,11 @@
       <c r="K243" t="b">
         <v>1</v>
       </c>
-      <c r="Q243" t="s">
+      <c r="R243" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1462</v>
       </c>
@@ -16394,11 +16523,14 @@
       <c r="J244" t="s">
         <v>1466</v>
       </c>
-      <c r="Q244" t="s">
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="R244" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1468</v>
       </c>
@@ -16426,11 +16558,14 @@
       <c r="J245" t="s">
         <v>1473</v>
       </c>
-      <c r="Q245" t="s">
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="R245" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1475</v>
       </c>
@@ -16468,11 +16603,11 @@
       <c r="O246" t="b">
         <v>1</v>
       </c>
-      <c r="Q246" t="s">
+      <c r="R246" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1479</v>
       </c>
@@ -16500,11 +16635,11 @@
       <c r="K247" t="b">
         <v>1</v>
       </c>
-      <c r="Q247" t="s">
+      <c r="R247" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1485</v>
       </c>
@@ -16535,11 +16670,11 @@
       <c r="K248" t="b">
         <v>1</v>
       </c>
-      <c r="Q248" t="s">
+      <c r="R248" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1492</v>
       </c>
@@ -16580,14 +16715,14 @@
       <c r="O249" t="b">
         <v>1</v>
       </c>
-      <c r="P249" t="s">
+      <c r="Q249" t="s">
         <v>2026</v>
       </c>
-      <c r="Q249" t="s">
+      <c r="R249" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1498</v>
       </c>
@@ -16618,11 +16753,11 @@
       <c r="K250" t="b">
         <v>1</v>
       </c>
-      <c r="Q250" t="s">
+      <c r="R250" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1503</v>
       </c>
@@ -16650,11 +16785,14 @@
       <c r="J251" t="s">
         <v>1507</v>
       </c>
-      <c r="Q251" t="s">
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="R251" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1509</v>
       </c>
@@ -16685,11 +16823,11 @@
       <c r="K252" t="b">
         <v>1</v>
       </c>
-      <c r="Q252" t="s">
+      <c r="R252" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1514</v>
       </c>
@@ -16720,11 +16858,11 @@
       <c r="K253" t="b">
         <v>1</v>
       </c>
-      <c r="Q253" t="s">
+      <c r="R253" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1521</v>
       </c>
@@ -16765,14 +16903,14 @@
       <c r="N254" t="b">
         <v>1</v>
       </c>
-      <c r="P254" t="s">
+      <c r="Q254" t="s">
         <v>2118</v>
       </c>
-      <c r="Q254" t="s">
+      <c r="R254" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1527</v>
       </c>
@@ -16803,11 +16941,11 @@
       <c r="K255" t="b">
         <v>1</v>
       </c>
-      <c r="Q255" t="s">
+      <c r="R255" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1533</v>
       </c>
@@ -16838,11 +16976,11 @@
       <c r="K256" t="b">
         <v>1</v>
       </c>
-      <c r="Q256" t="s">
+      <c r="R256" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1538</v>
       </c>
@@ -16883,14 +17021,14 @@
       <c r="N257" t="b">
         <v>1</v>
       </c>
-      <c r="P257" t="s">
+      <c r="Q257" t="s">
         <v>2106</v>
       </c>
-      <c r="Q257" t="s">
+      <c r="R257" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1544</v>
       </c>
@@ -16931,11 +17069,11 @@
       <c r="O258" t="b">
         <v>1</v>
       </c>
-      <c r="Q258" t="s">
+      <c r="R258" t="s">
         <v>2216</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1549</v>
       </c>
@@ -16976,11 +17114,11 @@
       <c r="O259" t="b">
         <v>1</v>
       </c>
-      <c r="Q259" t="s">
+      <c r="R259" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1555</v>
       </c>
@@ -17011,11 +17149,11 @@
       <c r="K260" t="b">
         <v>1</v>
       </c>
-      <c r="Q260" t="s">
+      <c r="R260" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1561</v>
       </c>
@@ -17046,11 +17184,11 @@
       <c r="K261" t="b">
         <v>1</v>
       </c>
-      <c r="Q261" t="s">
+      <c r="R261" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1568</v>
       </c>
@@ -17091,14 +17229,14 @@
       <c r="O262" t="b">
         <v>1</v>
       </c>
-      <c r="P262" t="s">
+      <c r="Q262" t="s">
         <v>2137</v>
       </c>
-      <c r="Q262" t="s">
+      <c r="R262" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1574</v>
       </c>
@@ -17133,14 +17271,14 @@
       <c r="N263" t="b">
         <v>1</v>
       </c>
-      <c r="P263" t="s">
+      <c r="Q263" t="s">
         <v>2024</v>
       </c>
-      <c r="Q263" t="s">
+      <c r="R263" t="s">
         <v>2072</v>
       </c>
     </row>
-    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1579</v>
       </c>
@@ -17171,11 +17309,11 @@
       <c r="K264" t="b">
         <v>1</v>
       </c>
-      <c r="Q264" t="s">
+      <c r="R264" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1586</v>
       </c>
@@ -17203,11 +17341,14 @@
       <c r="J265" t="s">
         <v>1590</v>
       </c>
-      <c r="Q265" t="s">
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="R265" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1592</v>
       </c>
@@ -17238,11 +17379,11 @@
       <c r="K266" t="b">
         <v>1</v>
       </c>
-      <c r="Q266" t="s">
+      <c r="R266" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1598</v>
       </c>
@@ -17283,11 +17424,11 @@
       <c r="O267" t="b">
         <v>1</v>
       </c>
-      <c r="Q267" t="s">
+      <c r="R267" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1604</v>
       </c>
@@ -17328,11 +17469,11 @@
       <c r="O268" t="b">
         <v>1</v>
       </c>
-      <c r="Q268" t="s">
+      <c r="R268" t="s">
         <v>2230</v>
       </c>
     </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1609</v>
       </c>
@@ -17363,11 +17504,11 @@
       <c r="K269" t="b">
         <v>1</v>
       </c>
-      <c r="Q269" t="s">
+      <c r="R269" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1616</v>
       </c>
@@ -17398,11 +17539,11 @@
       <c r="K270" t="b">
         <v>1</v>
       </c>
-      <c r="Q270" t="s">
+      <c r="R270" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1622</v>
       </c>
@@ -17433,11 +17574,11 @@
       <c r="K271" t="b">
         <v>1</v>
       </c>
-      <c r="Q271" t="s">
+      <c r="R271" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1629</v>
       </c>
@@ -17465,11 +17606,14 @@
       <c r="J272" t="s">
         <v>1634</v>
       </c>
-      <c r="Q272" t="s">
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="R272" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1636</v>
       </c>
@@ -17494,11 +17638,14 @@
       <c r="I273" t="s">
         <v>88</v>
       </c>
-      <c r="Q273" t="s">
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="R273" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1642</v>
       </c>
@@ -17536,14 +17683,14 @@
       <c r="N274" t="b">
         <v>1</v>
       </c>
-      <c r="P274" t="s">
+      <c r="Q274" t="s">
         <v>2129</v>
       </c>
-      <c r="Q274" t="s">
+      <c r="R274" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1647</v>
       </c>
@@ -17581,14 +17728,14 @@
       <c r="N275" t="b">
         <v>1</v>
       </c>
-      <c r="P275" t="s">
+      <c r="Q275" t="s">
         <v>2024</v>
       </c>
-      <c r="Q275" t="s">
+      <c r="R275" t="s">
         <v>2073</v>
       </c>
     </row>
-    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1653</v>
       </c>
@@ -17629,14 +17776,14 @@
       <c r="N276" t="b">
         <v>1</v>
       </c>
-      <c r="P276" t="s">
+      <c r="Q276" t="s">
         <v>2108</v>
       </c>
-      <c r="Q276" t="s">
+      <c r="R276" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1659</v>
       </c>
@@ -17667,11 +17814,11 @@
       <c r="K277" t="b">
         <v>1</v>
       </c>
-      <c r="Q277" t="s">
+      <c r="R277" t="s">
         <v>2059</v>
       </c>
     </row>
-    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1664</v>
       </c>
@@ -17702,11 +17849,11 @@
       <c r="K278" t="b">
         <v>1</v>
       </c>
-      <c r="Q278" t="s">
+      <c r="R278" t="s">
         <v>2060</v>
       </c>
     </row>
-    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1670</v>
       </c>
@@ -17747,14 +17894,14 @@
       <c r="O279" t="b">
         <v>1</v>
       </c>
-      <c r="P279" t="s">
+      <c r="Q279" t="s">
         <v>2086</v>
       </c>
-      <c r="Q279" t="s">
+      <c r="R279" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1675</v>
       </c>
@@ -17782,11 +17929,11 @@
       <c r="K280" t="b">
         <v>1</v>
       </c>
-      <c r="Q280" t="s">
+      <c r="R280" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1681</v>
       </c>
@@ -17817,11 +17964,11 @@
       <c r="K281" t="b">
         <v>1</v>
       </c>
-      <c r="Q281" t="s">
+      <c r="R281" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1687</v>
       </c>
@@ -17859,14 +18006,14 @@
       <c r="N282" t="b">
         <v>1</v>
       </c>
-      <c r="P282" t="s">
+      <c r="Q282" t="s">
         <v>63</v>
       </c>
-      <c r="Q282" t="s">
+      <c r="R282" t="s">
         <v>2124</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1691</v>
       </c>
@@ -17897,11 +18044,11 @@
       <c r="K283" t="b">
         <v>1</v>
       </c>
-      <c r="Q283" t="s">
+      <c r="R283" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1698</v>
       </c>
@@ -17932,11 +18079,11 @@
       <c r="K284" t="b">
         <v>1</v>
       </c>
-      <c r="Q284" t="s">
+      <c r="R284" t="s">
         <v>2061</v>
       </c>
     </row>
-    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1703</v>
       </c>
@@ -17974,14 +18121,14 @@
       <c r="N285" t="b">
         <v>1</v>
       </c>
-      <c r="P285" t="s">
+      <c r="Q285" t="s">
         <v>2082</v>
       </c>
-      <c r="Q285" t="s">
+      <c r="R285" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1709</v>
       </c>
@@ -18019,14 +18166,14 @@
       <c r="N286" t="b">
         <v>1</v>
       </c>
-      <c r="P286" t="s">
+      <c r="Q286" t="s">
         <v>2029</v>
       </c>
-      <c r="Q286" t="s">
+      <c r="R286" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1714</v>
       </c>
@@ -18054,11 +18201,11 @@
       <c r="K287" t="b">
         <v>1</v>
       </c>
-      <c r="Q287" t="s">
+      <c r="R287" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1720</v>
       </c>
@@ -18089,11 +18236,11 @@
       <c r="K288" t="b">
         <v>1</v>
       </c>
-      <c r="Q288" t="s">
+      <c r="R288" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1726</v>
       </c>
@@ -18134,14 +18281,14 @@
       <c r="O289" t="b">
         <v>1</v>
       </c>
-      <c r="P289" t="s">
+      <c r="Q289" t="s">
         <v>2081</v>
       </c>
-      <c r="Q289" t="s">
+      <c r="R289" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1732</v>
       </c>
@@ -18169,11 +18316,11 @@
       <c r="K290" t="b">
         <v>1</v>
       </c>
-      <c r="Q290" t="s">
+      <c r="R290" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1738</v>
       </c>
@@ -18201,11 +18348,14 @@
       <c r="J291" t="s">
         <v>1742</v>
       </c>
-      <c r="Q291" t="s">
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="R291" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1744</v>
       </c>
@@ -18233,11 +18383,14 @@
       <c r="J292" t="s">
         <v>1749</v>
       </c>
-      <c r="Q292" t="s">
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="R292" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1751</v>
       </c>
@@ -18278,14 +18431,14 @@
       <c r="N293" t="b">
         <v>1</v>
       </c>
-      <c r="P293" t="s">
+      <c r="Q293" t="s">
         <v>2122</v>
       </c>
-      <c r="Q293" t="s">
+      <c r="R293" t="s">
         <v>2121</v>
       </c>
     </row>
-    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1757</v>
       </c>
@@ -18326,11 +18479,11 @@
       <c r="O294" t="b">
         <v>1</v>
       </c>
-      <c r="Q294" t="s">
+      <c r="R294" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1763</v>
       </c>
@@ -18365,14 +18518,14 @@
       <c r="N295" t="b">
         <v>1</v>
       </c>
-      <c r="P295" t="s">
+      <c r="Q295" t="s">
         <v>2087</v>
       </c>
-      <c r="Q295" t="s">
+      <c r="R295" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1768</v>
       </c>
@@ -18410,14 +18563,14 @@
       <c r="N296" t="b">
         <v>1</v>
       </c>
-      <c r="P296" t="s">
+      <c r="Q296" t="s">
         <v>1008</v>
       </c>
-      <c r="Q296" t="s">
+      <c r="R296" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1774</v>
       </c>
@@ -18448,11 +18601,11 @@
       <c r="K297" t="b">
         <v>1</v>
       </c>
-      <c r="Q297" t="s">
+      <c r="R297" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1781</v>
       </c>
@@ -18483,11 +18636,11 @@
       <c r="K298" t="b">
         <v>1</v>
       </c>
-      <c r="Q298" t="s">
+      <c r="R298" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1786</v>
       </c>
@@ -18515,11 +18668,14 @@
       <c r="J299" t="s">
         <v>1791</v>
       </c>
-      <c r="Q299" t="s">
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="R299" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1793</v>
       </c>
@@ -18550,11 +18706,11 @@
       <c r="K300" t="b">
         <v>1</v>
       </c>
-      <c r="Q300" t="s">
+      <c r="R300" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1798</v>
       </c>
@@ -18585,11 +18741,11 @@
       <c r="K301" t="b">
         <v>1</v>
       </c>
-      <c r="Q301" t="s">
+      <c r="R301" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1804</v>
       </c>
@@ -18620,11 +18776,11 @@
       <c r="K302" t="b">
         <v>1</v>
       </c>
-      <c r="Q302" t="s">
+      <c r="R302" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1811</v>
       </c>
@@ -18665,11 +18821,11 @@
       <c r="O303" t="b">
         <v>1</v>
       </c>
-      <c r="Q303" t="s">
+      <c r="R303" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1817</v>
       </c>
@@ -18697,11 +18853,14 @@
       <c r="J304" t="s">
         <v>1821</v>
       </c>
-      <c r="Q304" t="s">
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="R304" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1823</v>
       </c>
@@ -18742,14 +18901,14 @@
       <c r="N305" t="b">
         <v>1</v>
       </c>
-      <c r="P305" t="s">
+      <c r="Q305" t="s">
         <v>2119</v>
       </c>
-      <c r="Q305" t="s">
+      <c r="R305" t="s">
         <v>2120</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1828</v>
       </c>
@@ -18780,11 +18939,11 @@
       <c r="K306" t="b">
         <v>1</v>
       </c>
-      <c r="Q306" t="s">
+      <c r="R306" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1834</v>
       </c>
@@ -18812,11 +18971,14 @@
       <c r="J307" t="s">
         <v>1838</v>
       </c>
-      <c r="Q307" t="s">
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="R307" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1840</v>
       </c>
@@ -18847,11 +19009,11 @@
       <c r="K308" t="b">
         <v>1</v>
       </c>
-      <c r="Q308" t="s">
+      <c r="R308" t="s">
         <v>2065</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1844</v>
       </c>
@@ -18879,11 +19041,14 @@
       <c r="J309" t="s">
         <v>1846</v>
       </c>
-      <c r="Q309" t="s">
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="R309" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1848</v>
       </c>
@@ -18914,11 +19079,11 @@
       <c r="K310" t="b">
         <v>1</v>
       </c>
-      <c r="Q310" t="s">
+      <c r="R310" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1855</v>
       </c>
@@ -18959,14 +19124,14 @@
       <c r="O311" t="b">
         <v>1</v>
       </c>
-      <c r="P311" t="s">
+      <c r="Q311" t="s">
         <v>2093</v>
       </c>
-      <c r="Q311" t="s">
+      <c r="R311" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1861</v>
       </c>
@@ -19007,11 +19172,11 @@
       <c r="O312" t="b">
         <v>1</v>
       </c>
-      <c r="Q312" t="s">
+      <c r="R312" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1867</v>
       </c>
@@ -19042,11 +19207,11 @@
       <c r="K313" t="b">
         <v>1</v>
       </c>
-      <c r="Q313" t="s">
+      <c r="R313" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1873</v>
       </c>
@@ -19074,11 +19239,14 @@
       <c r="J314" t="s">
         <v>1877</v>
       </c>
-      <c r="Q314" t="s">
+      <c r="K314" t="b">
+        <v>1</v>
+      </c>
+      <c r="R314" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1879</v>
       </c>
@@ -19109,11 +19277,11 @@
       <c r="K315" t="b">
         <v>1</v>
       </c>
-      <c r="Q315" t="s">
+      <c r="R315" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1886</v>
       </c>
@@ -19154,14 +19322,14 @@
       <c r="O316" t="b">
         <v>1</v>
       </c>
-      <c r="P316" t="s">
+      <c r="Q316" t="s">
         <v>2024</v>
       </c>
-      <c r="Q316" t="s">
+      <c r="R316" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1892</v>
       </c>
@@ -19202,14 +19370,14 @@
       <c r="O317" t="b">
         <v>1</v>
       </c>
-      <c r="P317" t="s">
+      <c r="Q317" t="s">
         <v>2030</v>
       </c>
-      <c r="Q317" t="s">
+      <c r="R317" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1897</v>
       </c>
@@ -19247,14 +19415,14 @@
       <c r="O318" t="b">
         <v>1</v>
       </c>
-      <c r="P318" t="s">
+      <c r="Q318" t="s">
         <v>2028</v>
       </c>
-      <c r="Q318" t="s">
+      <c r="R318" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1901</v>
       </c>
@@ -19292,14 +19460,14 @@
       <c r="N319" t="b">
         <v>1</v>
       </c>
-      <c r="P319" t="s">
+      <c r="Q319" t="s">
         <v>2079</v>
       </c>
-      <c r="Q319" t="s">
+      <c r="R319" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1906</v>
       </c>
@@ -19337,14 +19505,14 @@
       <c r="N320" t="b">
         <v>1</v>
       </c>
-      <c r="P320" t="s">
+      <c r="Q320" t="s">
         <v>2079</v>
       </c>
-      <c r="Q320" t="s">
+      <c r="R320" t="s">
         <v>2126</v>
       </c>
     </row>
-    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1910</v>
       </c>
@@ -19375,11 +19543,11 @@
       <c r="K321" t="b">
         <v>1</v>
       </c>
-      <c r="Q321" t="s">
+      <c r="R321" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1916</v>
       </c>
@@ -19410,11 +19578,11 @@
       <c r="K322" t="b">
         <v>1</v>
       </c>
-      <c r="Q322" t="s">
+      <c r="R322" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1922</v>
       </c>
@@ -19455,11 +19623,11 @@
       <c r="O323" t="b">
         <v>1</v>
       </c>
-      <c r="Q323" t="s">
+      <c r="R323" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1928</v>
       </c>
@@ -19487,11 +19655,14 @@
       <c r="J324" t="s">
         <v>1933</v>
       </c>
-      <c r="Q324" t="s">
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="R324" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1935</v>
       </c>
@@ -19529,14 +19700,14 @@
       <c r="N325" t="b">
         <v>1</v>
       </c>
-      <c r="P325" t="s">
+      <c r="Q325" t="s">
         <v>1008</v>
       </c>
-      <c r="Q325" t="s">
+      <c r="R325" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1941</v>
       </c>
@@ -19564,11 +19735,14 @@
       <c r="J326" t="s">
         <v>1945</v>
       </c>
-      <c r="Q326" t="s">
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="R326" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1947</v>
       </c>
@@ -19599,11 +19773,11 @@
       <c r="K327" t="b">
         <v>1</v>
       </c>
-      <c r="Q327" t="s">
+      <c r="R327" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1954</v>
       </c>
@@ -19638,11 +19812,14 @@
       <c r="M328" t="b">
         <v>1</v>
       </c>
-      <c r="Q328" t="s">
+      <c r="O328" t="b">
+        <v>1</v>
+      </c>
+      <c r="R328" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1958</v>
       </c>
@@ -19670,11 +19847,14 @@
       <c r="J329" t="s">
         <v>1963</v>
       </c>
-      <c r="Q329" t="s">
+      <c r="K329" t="b">
+        <v>1</v>
+      </c>
+      <c r="R329" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1965</v>
       </c>
@@ -19705,11 +19885,11 @@
       <c r="K330" t="b">
         <v>1</v>
       </c>
-      <c r="Q330" t="s">
+      <c r="R330" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1971</v>
       </c>
@@ -19740,11 +19920,11 @@
       <c r="K331" t="b">
         <v>1</v>
       </c>
-      <c r="Q331" t="s">
+      <c r="R331" t="s">
         <v>2066</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1977</v>
       </c>
@@ -19772,11 +19952,14 @@
       <c r="J332" t="s">
         <v>1981</v>
       </c>
-      <c r="Q332" t="s">
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="R332" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1983</v>
       </c>
@@ -19804,11 +19987,14 @@
       <c r="J333" t="s">
         <v>1988</v>
       </c>
-      <c r="Q333" t="s">
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="R333" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1990</v>
       </c>
@@ -19849,13 +20035,16 @@
       <c r="O334" t="b">
         <v>1</v>
       </c>
-      <c r="Q334" t="s">
+      <c r="R334" t="s">
         <v>2150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R334" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="16">
+  <autoFilter ref="A1:S334" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
